--- a/Datos/Anuario2024/110501_BodasCiviles.xlsx
+++ b/Datos/Anuario2024/110501_BodasCiviles.xlsx
@@ -1,14 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-15" yWindow="4050" windowWidth="15330" windowHeight="4080" tabRatio="685" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-15" yWindow="4050" windowWidth="15330" windowHeight="4080" tabRatio="685"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1 graf1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0" sheetId="38" r:id="rId1"/>
+    <sheet name="1" sheetId="39" r:id="rId2"/>
+    <sheet name="1 graf1" sheetId="43" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -117,6 +123,7 @@
     <definedName name="_R8_4">#REF!</definedName>
     <definedName name="_R8_5">#REF!</definedName>
     <definedName name="a">'[3]1.1'!$A$1:$I$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'1 graf1'!$A$1:$B$23</definedName>
     <definedName name="b">#REF!</definedName>
     <definedName name="BLA">#REF!</definedName>
     <definedName name="gd">'[3]2.21'!$A$1:$G$50</definedName>
@@ -124,102 +131,124 @@
     <definedName name="n">'[3]1.1'!$A$1:$I$38</definedName>
     <definedName name="p">'[4]4.27'!$A$1:$G$22</definedName>
     <definedName name="u">'[4]4.17'!$A$1:$I$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'1 graf1'!$A$1:$B$23</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Nota: Bodas civiles celebradas en edificios o instalaciones del Ayuntamiento de València.</t>
+  </si>
+  <si>
+    <t>BODAS CIVILES MUNICIPALES</t>
+  </si>
+  <si>
+    <t>1. Celebración de bodas civiles en el Ayuntamiento de València. 2014-2023</t>
+  </si>
+  <si>
+    <t>Fuente: Servicio de Secretaría General. Sección Oficina de Matrimonios. Ayuntamiento de València.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -242,46 +271,47 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="6"/>
     <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="5"/>
     <cellStyle name="Normal 5" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="5"/>
-    <cellStyle name="Normal 2 2" xfId="6"/>
     <cellStyle name="Porcentaje 2" xfId="7"/>
     <cellStyle name="style1595592910070" xfId="8"/>
+    <cellStyle name="style1595592910101" xfId="10"/>
     <cellStyle name="style1595592910148" xfId="9"/>
-    <cellStyle name="style1595592910101" xfId="10"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -350,13 +380,86 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFF9F3C7"/>
+      <color rgb="FFCC9900"/>
+      <color rgb="FFFAC090"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127635</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4966335</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="127635" y="283845"/>
+          <a:ext cx="5210175" cy="3238500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -2014,8 +2117,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -13703,7 +13806,7 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v> </v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B4" t="str">
             <v>Immigrants</v>
@@ -17498,8 +17601,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -19681,8 +19784,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -20678,309 +20781,277 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja35">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="8">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>BODAS CIVILES MUNICIPALES</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja36">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="8.7109375" customWidth="1" style="8" min="1" max="1"/>
-    <col width="6.7109375" customWidth="1" style="8" min="2" max="11"/>
-    <col width="5.85546875" customWidth="1" style="8" min="12" max="12"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="11" width="6.7109375" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="8">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>1. Celebración de bodas civiles en el Ayuntamiento de València. 2014-2023</t>
-        </is>
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="n"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
     </row>
-    <row r="3" ht="18.75" customHeight="1" s="8">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>Año</t>
-        </is>
+    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="7">
         <v>2014</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="7">
         <v>2015</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="7">
         <v>2016</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="7">
         <v>2017</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>2018</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="7">
         <v>2019</v>
       </c>
-      <c r="H3" s="7" t="n">
+      <c r="H3" s="7">
         <v>2020</v>
       </c>
-      <c r="I3" s="7" t="n">
+      <c r="I3" s="7">
         <v>2021</v>
       </c>
-      <c r="J3" s="7" t="n">
+      <c r="J3" s="7">
         <v>2022</v>
       </c>
-      <c r="K3" s="7" t="n">
+      <c r="K3" s="7">
         <v>2023</v>
       </c>
-      <c r="L3" s="13" t="n"/>
+      <c r="L3" s="13"/>
     </row>
-    <row r="4" ht="15" customHeight="1" s="8">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>Número</t>
-        </is>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>1</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="5">
         <v>347</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>350</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>342</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="5">
         <v>349</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="5">
         <v>355</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="5">
         <v>348</v>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="5">
         <v>261</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="5">
         <v>344</v>
       </c>
-      <c r="J4" s="5" t="n">
+      <c r="J4" s="5">
         <v>395</v>
       </c>
-      <c r="K4" s="5" t="n">
+      <c r="K4" s="5">
         <v>380</v>
       </c>
-      <c r="L4" s="5" t="n"/>
+      <c r="L4" s="5"/>
     </row>
-    <row r="5">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>Nota: Bodas civiles celebradas en edificios o instalaciones del Ayuntamiento de València.</t>
-        </is>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Secretaría General. Sección Oficina de Matrimonios. Ayuntamiento de València.</t>
-        </is>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="1" s="10">
-      <c r="A7" s="11" t="n"/>
-      <c r="B7" s="11" t="n"/>
-      <c r="C7" s="11" t="n"/>
-      <c r="D7" s="12" t="n"/>
-      <c r="E7" s="12" t="n"/>
-      <c r="F7" s="12" t="n"/>
-      <c r="G7" s="12" t="n"/>
-      <c r="H7" s="12" t="n"/>
-      <c r="I7" s="12" t="n"/>
-      <c r="J7" s="12" t="n"/>
-      <c r="K7" s="12" t="n"/>
-      <c r="L7" s="12" t="n"/>
+    <row r="7" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
-    <row r="8" customFormat="1" s="10">
-      <c r="A8" s="5" t="n"/>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
-      <c r="H8" s="5" t="n"/>
-      <c r="I8" s="5" t="n"/>
-      <c r="J8" s="5" t="n"/>
-      <c r="K8" s="5" t="n"/>
-      <c r="L8" s="5" t="n"/>
+    <row r="8" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
     </row>
-    <row r="9" s="8"/>
+    <row r="9" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja37">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="C1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="5.5703125" customWidth="1" style="10" min="1" max="1"/>
-    <col width="75.5703125" customWidth="1" style="10" min="2" max="2"/>
-    <col width="11.42578125" customWidth="1" style="10" min="3" max="3"/>
-    <col width="11.42578125" customWidth="1" style="5" min="4" max="4"/>
-    <col width="11.42578125" customWidth="1" style="10" min="5" max="16384"/>
+    <col min="1" max="1" width="5.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="75.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="9"/>
+    <col min="4" max="4" width="11.42578125" style="5"/>
+    <col min="5" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="10" t="n"/>
+    <row r="1" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="5"/>
+      <c r="D1" s="9"/>
     </row>
-    <row r="3">
-      <c r="E3" s="1" t="n"/>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="1"/>
     </row>
-    <row r="4">
-      <c r="E4" s="1" t="n"/>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="1"/>
     </row>
-    <row r="5">
-      <c r="E5" s="1" t="n"/>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="1"/>
     </row>
-    <row r="6">
-      <c r="E6" s="1" t="n"/>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="1"/>
     </row>
-    <row r="7">
-      <c r="E7" s="1" t="n"/>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="1"/>
     </row>
-    <row r="8">
-      <c r="E8" s="1" t="n"/>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="1"/>
     </row>
-    <row r="9">
-      <c r="E9" s="1" t="n"/>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="1"/>
     </row>
-    <row r="10">
-      <c r="E10" s="1" t="n"/>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E10" s="1"/>
     </row>
-    <row r="11">
-      <c r="E11" s="1" t="n"/>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="1"/>
     </row>
-    <row r="12">
-      <c r="E12" s="1" t="n"/>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E12" s="1"/>
     </row>
-    <row r="13">
-      <c r="E13" s="1" t="n"/>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E13" s="1"/>
     </row>
-    <row r="14">
-      <c r="E14" s="1" t="n"/>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="1"/>
     </row>
-    <row r="15">
-      <c r="E15" s="1" t="n"/>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="1"/>
     </row>
-    <row r="16">
-      <c r="E16" s="1" t="n"/>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="1"/>
     </row>
-    <row r="17">
-      <c r="E17" s="1" t="n"/>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="1"/>
     </row>
-    <row r="18">
-      <c r="E18" s="1" t="n"/>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="1"/>
     </row>
-    <row r="19">
-      <c r="E19" s="1" t="n"/>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="1"/>
     </row>
-    <row r="20">
-      <c r="E20" s="1" t="n"/>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="1"/>
     </row>
-    <row r="21">
-      <c r="E21" s="1" t="n"/>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="1"/>
     </row>
-    <row r="22">
-      <c r="E22" s="1" t="n"/>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="1"/>
     </row>
-    <row r="23">
-      <c r="E23" s="1" t="n"/>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="1"/>
     </row>
-    <row r="24">
-      <c r="E24" s="1" t="n"/>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="1"/>
     </row>
-    <row r="25">
-      <c r="E25" s="1" t="n"/>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="1"/>
     </row>
-    <row r="26">
-      <c r="E26" s="1" t="n"/>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>